--- a/output/Tables/Log linear/Modal shift/HIA_modal_shift_100replicate.xlsx
+++ b/output/Tables/Log linear/Modal shift/HIA_modal_shift_100replicate.xlsx
@@ -1,74 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Log linear/Modal shift/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37557FDA-3135-B84E-899D-C0A168F7E756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34080" yWindow="480" windowWidth="25400" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>cases_low</t>
-  </si>
-  <si>
-    <t>cases_mean</t>
-  </si>
-  <si>
-    <t>cases_sup</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>daly_low</t>
-  </si>
-  <si>
-    <t>daly_mean</t>
-  </si>
-  <si>
-    <t>daly_sup</t>
-  </si>
-  <si>
-    <t>medic_costs_low</t>
-  </si>
-  <si>
-    <t>medic_costs_mean</t>
-  </si>
-  <si>
-    <t>medic_costs_sup</t>
-  </si>
-  <si>
-    <t>soc_costs_low</t>
-  </si>
-  <si>
-    <t>soc_costs_mean</t>
-  </si>
-  <si>
-    <t>soc_costs_sup</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -202,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,74 +350,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>cases_low</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cases_mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cases_sup</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>daly_low</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>daly_mean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>daly_sup</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>medic_costs_low</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>medic_costs_mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>medic_costs_sup</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>soc_costs_low</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>soc_costs_mean</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>soc_costs_sup</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>504.56338436987869</v>
+        <v>592.3867030525919</v>
       </c>
       <c r="B2">
-        <v>1108.930233583576</v>
+        <v>1049.598488909854</v>
       </c>
       <c r="C2">
-        <v>1748.900057327231</v>
+        <v>1667.870396564028</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -489,42 +446,42 @@
         <v>0.1</v>
       </c>
       <c r="F2">
-        <v>2232.7801314305812</v>
+        <v>2409.98088733257</v>
       </c>
       <c r="G2">
-        <v>4212.3226539090156</v>
+        <v>4049.3826273414</v>
       </c>
       <c r="H2">
-        <v>6194.8623338723673</v>
+        <v>5835.179107925167</v>
       </c>
       <c r="I2">
-        <v>13.624569020419321</v>
+        <v>11.85359018673999</v>
       </c>
       <c r="J2">
-        <v>24.12666627180354</v>
+        <v>24.08153019634089</v>
       </c>
       <c r="K2">
-        <v>33.251332210142621</v>
+        <v>33.879813829036</v>
       </c>
       <c r="L2">
-        <v>322.07873976955131</v>
+        <v>300.3487496479107</v>
       </c>
       <c r="M2">
-        <v>575.20865760713059</v>
+        <v>536.0924883255304</v>
       </c>
       <c r="N2">
-        <v>810.81147922378659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>771.9894200700182</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <v>1245.4884340475021</v>
+        <v>1236.496627415825</v>
       </c>
       <c r="B3">
-        <v>2019.860873180864</v>
+        <v>2062.103249831846</v>
       </c>
       <c r="C3">
-        <v>3141.925999742843</v>
+        <v>3067.205608093285</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -533,42 +490,42 @@
         <v>0.2</v>
       </c>
       <c r="F3">
-        <v>5258.4793089744426</v>
+        <v>5065.014515300521</v>
       </c>
       <c r="G3">
-        <v>8067.3591374884909</v>
+        <v>7583.657306499642</v>
       </c>
       <c r="H3">
-        <v>11265.386965608999</v>
+        <v>10618.65902073596</v>
       </c>
       <c r="I3">
-        <v>28.72428100112689</v>
+        <v>28.15574605855373</v>
       </c>
       <c r="J3">
-        <v>44.100166142926852</v>
+        <v>45.79442416207498</v>
       </c>
       <c r="K3">
-        <v>62.470678435417042</v>
+        <v>61.80179476632446</v>
       </c>
       <c r="L3">
-        <v>721.77550773156122</v>
+        <v>660.5031377668087</v>
       </c>
       <c r="M3">
-        <v>1061.303624303579</v>
+        <v>1034.941829298314</v>
       </c>
       <c r="N3">
-        <v>1477.1435936288799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1332.964668720575</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
-        <v>1993.5935548471591</v>
+        <v>1880.282278176625</v>
       </c>
       <c r="B4">
-        <v>3160.891520798039</v>
+        <v>3020.893860729259</v>
       </c>
       <c r="C4">
-        <v>4460.6190985315588</v>
+        <v>4062.731875762707</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -577,42 +534,42 @@
         <v>0.3</v>
       </c>
       <c r="F4">
-        <v>8501.5228451153798</v>
+        <v>7737.402632028727</v>
       </c>
       <c r="G4">
-        <v>11922.160870609619</v>
+        <v>11381.94733806594</v>
       </c>
       <c r="H4">
-        <v>15764.677205153261</v>
+        <v>14750.73865220046</v>
       </c>
       <c r="I4">
-        <v>48.442870696909232</v>
+        <v>45.707582744513</v>
       </c>
       <c r="J4">
-        <v>69.842661615319486</v>
+        <v>68.34503085755034</v>
       </c>
       <c r="K4">
-        <v>87.339785105114544</v>
+        <v>87.6011737123187</v>
       </c>
       <c r="L4">
-        <v>1075.1853691100141</v>
+        <v>1024.83243800197</v>
       </c>
       <c r="M4">
-        <v>1584.858032621069</v>
+        <v>1488.639370966469</v>
       </c>
       <c r="N4">
-        <v>2090.7495384623662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1918.862844872123</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
-        <v>2766.7305605921929</v>
+        <v>2763.930190742778</v>
       </c>
       <c r="B5">
-        <v>4146.5663253216226</v>
+        <v>4075.671366915157</v>
       </c>
       <c r="C5">
-        <v>5408.1781205030647</v>
+        <v>5446.394892331685</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -621,42 +578,42 @@
         <v>0.4</v>
       </c>
       <c r="F5">
-        <v>11748.635383927351</v>
+        <v>10715.82074028367</v>
       </c>
       <c r="G5">
-        <v>16812.719419312281</v>
+        <v>15633.53747464902</v>
       </c>
       <c r="H5">
-        <v>21809.127993526759</v>
+        <v>19513.11872935307</v>
       </c>
       <c r="I5">
-        <v>68.372473481746638</v>
+        <v>64.8594339452861</v>
       </c>
       <c r="J5">
-        <v>93.501097711935728</v>
+        <v>91.05713453130301</v>
       </c>
       <c r="K5">
-        <v>120.98364544519229</v>
+        <v>126.1863009778293</v>
       </c>
       <c r="L5">
-        <v>1599.0080698068441</v>
+        <v>1530.458311639173</v>
       </c>
       <c r="M5">
-        <v>2319.0624200795601</v>
+        <v>2045.55568604136</v>
       </c>
       <c r="N5">
-        <v>2921.4346225108461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2710.094836861257</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
-        <v>3428.2845728653392</v>
+        <v>3471.651808314029</v>
       </c>
       <c r="B6">
-        <v>5127.9261207844056</v>
+        <v>5014.702348335537</v>
       </c>
       <c r="C6">
-        <v>6591.7062262680492</v>
+        <v>6595.828055198318</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -665,42 +622,42 @@
         <v>0.5</v>
       </c>
       <c r="F6">
-        <v>15138.60049622029</v>
+        <v>13995.94283280706</v>
       </c>
       <c r="G6">
-        <v>20508.534355192201</v>
+        <v>19262.68069084728</v>
       </c>
       <c r="H6">
-        <v>25533.342513700311</v>
+        <v>24240.27085545165</v>
       </c>
       <c r="I6">
-        <v>87.121660569174253</v>
+        <v>78.79606068146897</v>
       </c>
       <c r="J6">
-        <v>112.4409186866356</v>
+        <v>111.7023981878187</v>
       </c>
       <c r="K6">
-        <v>143.7523298830007</v>
+        <v>137.8025078902147</v>
       </c>
       <c r="L6">
-        <v>1981.1786499878669</v>
+        <v>1859.541294974653</v>
       </c>
       <c r="M6">
-        <v>2710.0923683833471</v>
+        <v>2599.115246305032</v>
       </c>
       <c r="N6">
-        <v>3450.9935748791791</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3257.164648020041</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
-        <v>5466.9475333997452</v>
+        <v>5725.08227653769</v>
       </c>
       <c r="B7">
-        <v>8599.0863438584856</v>
+        <v>8232.641906708308</v>
       </c>
       <c r="C7">
-        <v>11081.639274220321</v>
+        <v>10907.02775262349</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -709,42 +666,42 @@
         <v>0.1</v>
       </c>
       <c r="F7">
-        <v>24066.777399554529</v>
+        <v>21900.81240688586</v>
       </c>
       <c r="G7">
-        <v>33945.202739252964</v>
+        <v>31131.48264481004</v>
       </c>
       <c r="H7">
-        <v>43010.808909069543</v>
+        <v>41047.64163352444</v>
       </c>
       <c r="I7">
-        <v>127.0101236598651</v>
+        <v>128.1657707673742</v>
       </c>
       <c r="J7">
-        <v>184.3479752986741</v>
+        <v>185.0519016303773</v>
       </c>
       <c r="K7">
-        <v>240.48549628466131</v>
+        <v>236.6867038304683</v>
       </c>
       <c r="L7">
-        <v>3186.7121662349468</v>
+        <v>3220.134354573838</v>
       </c>
       <c r="M7">
-        <v>4526.1761255907477</v>
+        <v>4096.01353603075</v>
       </c>
       <c r="N7">
-        <v>5646.7195157508086</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5153.656167738396</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
-        <v>12267.336341363811</v>
+        <v>11139.07193651579</v>
       </c>
       <c r="B8">
-        <v>16370.031594323431</v>
+        <v>15977.3818233979</v>
       </c>
       <c r="C8">
-        <v>20378.859144183469</v>
+        <v>19685.18776486253</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -753,42 +710,42 @@
         <v>0.2</v>
       </c>
       <c r="F8">
-        <v>47011.286853305442</v>
+        <v>48285.12361869169</v>
       </c>
       <c r="G8">
-        <v>64980.42013835963</v>
+        <v>60081.49732551006</v>
       </c>
       <c r="H8">
-        <v>79308.696451846903</v>
+        <v>72240.48020438534</v>
       </c>
       <c r="I8">
-        <v>267.00743619244292</v>
+        <v>286.393135807928</v>
       </c>
       <c r="J8">
-        <v>355.2158939761473</v>
+        <v>358.6974870979961</v>
       </c>
       <c r="K8">
-        <v>463.20945692515528</v>
+        <v>456.7000533443269</v>
       </c>
       <c r="L8">
-        <v>6644.6546991296291</v>
+        <v>6289.617842899608</v>
       </c>
       <c r="M8">
-        <v>8677.1540668072812</v>
+        <v>7992.515948343731</v>
       </c>
       <c r="N8">
-        <v>10401.821563970379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>10023.51275542721</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
-        <v>20089.26312916465</v>
+        <v>18403.53820875832</v>
       </c>
       <c r="B9">
-        <v>26383.350729532009</v>
+        <v>25439.07615837756</v>
       </c>
       <c r="C9">
-        <v>32188.40786886682</v>
+        <v>30426.98116758171</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -797,42 +754,42 @@
         <v>0.3</v>
       </c>
       <c r="F9">
-        <v>73230.894343263717</v>
+        <v>72232.77152068249</v>
       </c>
       <c r="G9">
-        <v>98347.61459800828</v>
+        <v>93061.63235613886</v>
       </c>
       <c r="H9">
-        <v>119917.4062355614</v>
+        <v>112718.4388727199</v>
       </c>
       <c r="I9">
-        <v>431.53157475853658</v>
+        <v>417.8767621095712</v>
       </c>
       <c r="J9">
-        <v>570.82749917718547</v>
+        <v>568.2508946983055</v>
       </c>
       <c r="K9">
-        <v>691.05713642455396</v>
+        <v>702.7752804305344</v>
       </c>
       <c r="L9">
-        <v>10665.284980074841</v>
+        <v>9427.946854804353</v>
       </c>
       <c r="M9">
-        <v>13216.62781632382</v>
+        <v>12148.36603468139</v>
       </c>
       <c r="N9">
-        <v>16360.608501519961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>14799.86260228855</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
-        <v>24557.47668163761</v>
+        <v>25127.57266253657</v>
       </c>
       <c r="B10">
-        <v>32044.280201104681</v>
+        <v>31493.44981882383</v>
       </c>
       <c r="C10">
-        <v>39949.074902972687</v>
+        <v>38117.58157785772</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -841,42 +798,42 @@
         <v>0.4</v>
       </c>
       <c r="F10">
-        <v>97787.680625817651</v>
+        <v>90564.82547692035</v>
       </c>
       <c r="G10">
-        <v>121146.13714925729</v>
+        <v>112457.1814079283</v>
       </c>
       <c r="H10">
-        <v>151252.50896062571</v>
+        <v>134265.2741434448</v>
       </c>
       <c r="I10">
-        <v>556.11050102028469</v>
+        <v>549.7931805363455</v>
       </c>
       <c r="J10">
-        <v>703.65427159848355</v>
+        <v>703.1416477052687</v>
       </c>
       <c r="K10">
-        <v>847.76027204542549</v>
+        <v>859.030851855979</v>
       </c>
       <c r="L10">
-        <v>12756.39364492429</v>
+        <v>12024.66346280758</v>
       </c>
       <c r="M10">
-        <v>16172.42608072164</v>
+        <v>15061.20879616707</v>
       </c>
       <c r="N10">
-        <v>19842.802462431791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18201.92899169687</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
-        <v>32886.960095723793</v>
+        <v>31943.09987254626</v>
       </c>
       <c r="B11">
-        <v>41519.049484265139</v>
+        <v>40547.1644465533</v>
       </c>
       <c r="C11">
-        <v>50934.799519652523</v>
+        <v>49339.57128091827</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -885,42 +842,42 @@
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>125379.4141363416</v>
+        <v>113428.5134672763</v>
       </c>
       <c r="G11">
-        <v>154414.76180082071</v>
+        <v>144356.4781958862</v>
       </c>
       <c r="H11">
-        <v>187722.3036006068</v>
+        <v>174942.1466676607</v>
       </c>
       <c r="I11">
-        <v>747.65048302006471</v>
+        <v>702.6166057036852</v>
       </c>
       <c r="J11">
-        <v>920.80628507169718</v>
+        <v>915.5155115296768</v>
       </c>
       <c r="K11">
-        <v>1116.92785654821</v>
+        <v>1130.886986382883</v>
       </c>
       <c r="L11">
-        <v>16490.168575861651</v>
+        <v>14963.077531569</v>
       </c>
       <c r="M11">
-        <v>20842.290089874379</v>
+        <v>19212.31493723863</v>
       </c>
       <c r="N11">
-        <v>25432.237290581452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>23726.309848425</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
-        <v>8902.1586808864977</v>
+        <v>8689.866674236629</v>
       </c>
       <c r="B12">
-        <v>12863.808244247301</v>
+        <v>12421.85931503285</v>
       </c>
       <c r="C12">
-        <v>16715.89389053408</v>
+        <v>15933.28768469226</v>
       </c>
       <c r="D12">
         <v>1.5</v>
@@ -929,42 +886,42 @@
         <v>0.1</v>
       </c>
       <c r="F12">
-        <v>35349.78048802125</v>
+        <v>34523.67019906834</v>
       </c>
       <c r="G12">
-        <v>47612.992551909141</v>
+        <v>45945.23981909822</v>
       </c>
       <c r="H12">
-        <v>58603.872349337129</v>
+        <v>56979.66138340689</v>
       </c>
       <c r="I12">
-        <v>213.8870685401464</v>
+        <v>203.3798104542009</v>
       </c>
       <c r="J12">
-        <v>286.52073313817539</v>
+        <v>286.1513514765267</v>
       </c>
       <c r="K12">
-        <v>356.03538662380129</v>
+        <v>371.2855252748071</v>
       </c>
       <c r="L12">
-        <v>4767.3866707248553</v>
+        <v>4179.972301654537</v>
       </c>
       <c r="M12">
-        <v>6410.6851991723488</v>
+        <v>5931.617995141061</v>
       </c>
       <c r="N12">
-        <v>8285.2313586389337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7485.191525617417</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
-        <v>18972.444149388539</v>
+        <v>17767.96527829996</v>
       </c>
       <c r="B13">
-        <v>25654.371844858109</v>
+        <v>25045.01411833883</v>
       </c>
       <c r="C13">
-        <v>32287.087047629531</v>
+        <v>32098.23388747372</v>
       </c>
       <c r="D13">
         <v>1.5</v>
@@ -973,42 +930,42 @@
         <v>0.2</v>
       </c>
       <c r="F13">
-        <v>79583.637010872757</v>
+        <v>72501.99091831061</v>
       </c>
       <c r="G13">
-        <v>99587.443716081034</v>
+        <v>90095.87038973864</v>
       </c>
       <c r="H13">
-        <v>118803.65758558019</v>
+        <v>111752.577710942</v>
       </c>
       <c r="I13">
-        <v>455.58224946826113</v>
+        <v>435.2041675979675</v>
       </c>
       <c r="J13">
-        <v>570.8463387259967</v>
+        <v>570.2160074052097</v>
       </c>
       <c r="K13">
-        <v>697.2928228688744</v>
+        <v>700.1584373377214</v>
       </c>
       <c r="L13">
-        <v>10004.839357162809</v>
+        <v>9340.619671595294</v>
       </c>
       <c r="M13">
-        <v>12868.72851474191</v>
+        <v>11994.82765701832</v>
       </c>
       <c r="N13">
-        <v>16486.444032316911</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>14986.94328901284</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
-        <v>29227.933266533619</v>
+        <v>28931.54479912268</v>
       </c>
       <c r="B14">
-        <v>38162.206546888301</v>
+        <v>37601.97084878294</v>
       </c>
       <c r="C14">
-        <v>47829.530906065353</v>
+        <v>46822.87682643954</v>
       </c>
       <c r="D14">
         <v>1.5</v>
@@ -1017,42 +974,42 @@
         <v>0.3</v>
       </c>
       <c r="F14">
-        <v>114400.45042576551</v>
+        <v>108289.5099733219</v>
       </c>
       <c r="G14">
-        <v>149384.14320920481</v>
+        <v>137820.5866974239</v>
       </c>
       <c r="H14">
-        <v>187387.26557763491</v>
+        <v>174464.5271878931</v>
       </c>
       <c r="I14">
-        <v>633.82123878618938</v>
+        <v>640.9568824889587</v>
       </c>
       <c r="J14">
-        <v>850.42971200007923</v>
+        <v>845.7072667704169</v>
       </c>
       <c r="K14">
-        <v>1038.594420307594</v>
+        <v>1061.424680471127</v>
       </c>
       <c r="L14">
-        <v>14985.815955594489</v>
+        <v>14598.36318432642</v>
       </c>
       <c r="M14">
-        <v>19795.705661648852</v>
+        <v>18689.45275621069</v>
       </c>
       <c r="N14">
-        <v>23963.743265247271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>23041.18352579602</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
-        <v>39132.154680813866</v>
+        <v>39368.79853187363</v>
       </c>
       <c r="B15">
-        <v>52718.811993109113</v>
+        <v>51866.26858911745</v>
       </c>
       <c r="C15">
-        <v>65299.668933137749</v>
+        <v>63680.93588242311</v>
       </c>
       <c r="D15">
         <v>1.5</v>
@@ -1061,42 +1018,42 @@
         <v>0.4</v>
       </c>
       <c r="F15">
-        <v>166152.95833504689</v>
+        <v>146101.3429436042</v>
       </c>
       <c r="G15">
-        <v>208607.13635454109</v>
+        <v>190587.7143787496</v>
       </c>
       <c r="H15">
-        <v>249823.8493893655</v>
+        <v>230055.5331846906</v>
       </c>
       <c r="I15">
-        <v>896.90287575892057</v>
+        <v>846.8583429730875</v>
       </c>
       <c r="J15">
-        <v>1143.744954221778</v>
+        <v>1142.51527970451</v>
       </c>
       <c r="K15">
-        <v>1391.939278405315</v>
+        <v>1446.826919628119</v>
       </c>
       <c r="L15">
-        <v>21308.86173677021</v>
+        <v>19879.00251003032</v>
       </c>
       <c r="M15">
-        <v>27781.901147455999</v>
+        <v>25994.93135216545</v>
       </c>
       <c r="N15">
-        <v>33652.816770613368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30061.84917275776</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
-        <v>49389.302702297507</v>
+        <v>47979.59731171206</v>
       </c>
       <c r="B16">
-        <v>63746.256599122848</v>
+        <v>63429.55119238625</v>
       </c>
       <c r="C16">
-        <v>80479.335454792395</v>
+        <v>76710.8184264482</v>
       </c>
       <c r="D16">
         <v>1.5</v>
@@ -1105,42 +1062,42 @@
         <v>0.5</v>
       </c>
       <c r="F16">
-        <v>197123.12631925009</v>
+        <v>180430.9764003148</v>
       </c>
       <c r="G16">
-        <v>248822.56182627589</v>
+        <v>231339.2457928445</v>
       </c>
       <c r="H16">
-        <v>313706.00526935072</v>
+        <v>284189.5344165664</v>
       </c>
       <c r="I16">
-        <v>1109.205361029771</v>
+        <v>1118.046813728601</v>
       </c>
       <c r="J16">
-        <v>1437.0020774483839</v>
+        <v>1405.641295413957</v>
       </c>
       <c r="K16">
-        <v>1764.2042497430321</v>
+        <v>1703.682720296675</v>
       </c>
       <c r="L16">
-        <v>25934.95258648838</v>
+        <v>23978.6503256717</v>
       </c>
       <c r="M16">
-        <v>33870.060193485449</v>
+        <v>31249.56709637035</v>
       </c>
       <c r="N16">
-        <v>40277.778770610501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>36546.0637060516</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
-        <v>20615.868446966229</v>
+        <v>20060.80882558844</v>
       </c>
       <c r="B17">
-        <v>28956.640886428071</v>
+        <v>27584.7231980141</v>
       </c>
       <c r="C17">
-        <v>36576.7113537595</v>
+        <v>36717.89347100259</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1149,42 +1106,42 @@
         <v>0.1</v>
       </c>
       <c r="F17">
-        <v>82414.369990815394</v>
+        <v>71717.11234735939</v>
       </c>
       <c r="G17">
-        <v>109051.9772353818</v>
+        <v>99292.86346910274</v>
       </c>
       <c r="H17">
-        <v>136598.26260105849</v>
+        <v>127449.5498680272</v>
       </c>
       <c r="I17">
-        <v>459.28423077509512</v>
+        <v>472.5455730505337</v>
       </c>
       <c r="J17">
-        <v>627.52185358278609</v>
+        <v>630.7392868281095</v>
       </c>
       <c r="K17">
-        <v>776.88418834769982</v>
+        <v>801.5143860130875</v>
       </c>
       <c r="L17">
-        <v>10919.04963435933</v>
+        <v>9398.525505952157</v>
       </c>
       <c r="M17">
-        <v>14307.921458928629</v>
+        <v>13628.5016133319</v>
       </c>
       <c r="N17">
-        <v>18516.468822553721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>16922.39886703249</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
-        <v>44108.520718790591</v>
+        <v>37983.96085003877</v>
       </c>
       <c r="B18">
-        <v>57892.530061898608</v>
+        <v>54833.38439878993</v>
       </c>
       <c r="C18">
-        <v>72349.044414937409</v>
+        <v>69182.24456002311</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1193,42 +1150,42 @@
         <v>0.2</v>
       </c>
       <c r="F18">
-        <v>170595.05037675411</v>
+        <v>164606.2443066293</v>
       </c>
       <c r="G18">
-        <v>222656.4661884268</v>
+        <v>213619.1683648718</v>
       </c>
       <c r="H18">
-        <v>284981.2921625867</v>
+        <v>253222.3747094313</v>
       </c>
       <c r="I18">
-        <v>990.68445679272133</v>
+        <v>953.9683086409246</v>
       </c>
       <c r="J18">
-        <v>1247.4496712482569</v>
+        <v>1245.503363876635</v>
       </c>
       <c r="K18">
-        <v>1585.5891043050281</v>
+        <v>1538.108130643675</v>
       </c>
       <c r="L18">
-        <v>23778.14851203658</v>
+        <v>20565.63099765615</v>
       </c>
       <c r="M18">
-        <v>29931.120005539971</v>
+        <v>27613.3992156082</v>
       </c>
       <c r="N18">
-        <v>35614.641873708373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>33532.62799672196</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
-        <v>69501.779851827785</v>
+        <v>62817.96948552856</v>
       </c>
       <c r="B19">
-        <v>87578.156625169111</v>
+        <v>84151.79404922668</v>
       </c>
       <c r="C19">
-        <v>112407.3250184848</v>
+        <v>106035.0073689444</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1237,42 +1194,42 @@
         <v>0.3</v>
       </c>
       <c r="F19">
-        <v>270906.92440903618</v>
+        <v>254762.6846138952</v>
       </c>
       <c r="G19">
-        <v>352105.54212431668</v>
+        <v>323696.3364164603</v>
       </c>
       <c r="H19">
-        <v>424254.388110495</v>
+        <v>392105.2623974863</v>
       </c>
       <c r="I19">
-        <v>1472.7505067562511</v>
+        <v>1491.436451375523</v>
       </c>
       <c r="J19">
-        <v>1953.9753870594959</v>
+        <v>1922.256763983847</v>
       </c>
       <c r="K19">
-        <v>2383.1896620993489</v>
+        <v>2358.895032706802</v>
       </c>
       <c r="L19">
-        <v>35339.88856516956</v>
+        <v>32983.76118390513</v>
       </c>
       <c r="M19">
-        <v>46145.341101959537</v>
+        <v>42442.05401739574</v>
       </c>
       <c r="N19">
-        <v>57075.893628824073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>54691.55947136955</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
-        <v>88423.966687606924</v>
+        <v>85114.15064947623</v>
       </c>
       <c r="B20">
-        <v>112746.51177270179</v>
+        <v>113284.1987989156</v>
       </c>
       <c r="C20">
-        <v>144488.36220493671</v>
+        <v>137388.7939852251</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1281,42 +1238,42 @@
         <v>0.4</v>
       </c>
       <c r="F20">
-        <v>350106.52117938548</v>
+        <v>320272.7457617428</v>
       </c>
       <c r="G20">
-        <v>450848.74140723632</v>
+        <v>414593.6891817631</v>
       </c>
       <c r="H20">
-        <v>552539.70958613488</v>
+        <v>502229.4034126133</v>
       </c>
       <c r="I20">
-        <v>1998.632856862557</v>
+        <v>1913.983420205618</v>
       </c>
       <c r="J20">
-        <v>2471.5347147962798</v>
+        <v>2511.642300765419</v>
       </c>
       <c r="K20">
-        <v>2954.7657512929582</v>
+        <v>3096.018461867681</v>
       </c>
       <c r="L20">
-        <v>48561.602835072939</v>
+        <v>41723.26140025794</v>
       </c>
       <c r="M20">
-        <v>60357.380583561418</v>
+        <v>55412.04201726768</v>
       </c>
       <c r="N20">
-        <v>72706.065973982695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>69981.93786603637</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
-        <v>111492.0677354715</v>
+        <v>109587.0394649564</v>
       </c>
       <c r="B21">
-        <v>143468.9123808009</v>
+        <v>140875.0479976028</v>
       </c>
       <c r="C21">
-        <v>179669.58802484261</v>
+        <v>174591.8153584186</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1325,31 +1282,31 @@
         <v>0.5</v>
       </c>
       <c r="F21">
-        <v>409552.59946911939</v>
+        <v>403156.508096019</v>
       </c>
       <c r="G21">
-        <v>553415.54215715232</v>
+        <v>510054.0273001257</v>
       </c>
       <c r="H21">
-        <v>663198.15074232535</v>
+        <v>647587.518129649</v>
       </c>
       <c r="I21">
-        <v>2386.6505930826838</v>
+        <v>2390.185904336367</v>
       </c>
       <c r="J21">
-        <v>3206.2261781965731</v>
+        <v>3128.535303565306</v>
       </c>
       <c r="K21">
-        <v>3941.093663114852</v>
+        <v>3852.555198648304</v>
       </c>
       <c r="L21">
-        <v>58023.599251732812</v>
+        <v>54293.46434739602</v>
       </c>
       <c r="M21">
-        <v>71991.474547874561</v>
+        <v>67714.90236868671</v>
       </c>
       <c r="N21">
-        <v>87684.295812140219</v>
+        <v>83212.39378001976</v>
       </c>
     </row>
   </sheetData>
